--- a/c#/MNK2dim/MNK2dim/optic.xlsx
+++ b/c#/MNK2dim/MNK2dim/optic.xlsx
@@ -381,8 +381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1649"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,7 +1276,7 @@
         <v>786355</v>
       </c>
       <c r="B35">
-        <v>256.5</v>
+        <v>256.42500000000001</v>
       </c>
       <c r="C35">
         <v>0</v>
